--- a/data/trans_bre/P50_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P50_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>4,51</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>-0,83</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3,26</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>6,05%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-3,89%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>12,89%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>-4,36%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>10,27%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>11,53%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>15,5%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>-1,76%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>6,76%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 7,29</t>
+          <t>-2,96; 7,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 4,75</t>
+          <t>-7,32; 4,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 8,31</t>
+          <t>-2,29; 7,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 8,48</t>
+          <t>-3,19; 8,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 4,84</t>
+          <t>-2,14; 10,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 24,06</t>
+          <t>-6,65; 4,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-21,63; 17,01</t>
+          <t>-3,4; 8,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 32,97</t>
+          <t>-8,37; 23,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 35,19</t>
+          <t>-21,52; 16,17</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 11,16</t>
+          <t>-6,96; 30,88</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-10,07; 34,14</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-7,03; 40,07</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-13,22; 9,43</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-6,2; 17,89</t>
         </is>
       </c>
     </row>
@@ -761,47 +833,67 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>5,19</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,78</t>
+          <t>5,38</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>7,79</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>15,89%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>11,58%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>14,38%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>3,65%</t>
-        </is>
-      </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>21,39%</t>
+          <t>16,56%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3,84%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>16,45%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>21,44%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-1,01%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 11,26</t>
+          <t>-0,86; 11,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 10,41</t>
+          <t>-3,14; 10,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 10,73</t>
+          <t>-1,19; 11,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 7,27</t>
+          <t>-5,4; 7,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 17,21</t>
+          <t>-1,19; 13,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 35,93</t>
+          <t>-1,68; 17,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 39,05</t>
+          <t>-9,8; 9,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 37,65</t>
+          <t>-2,45; 35,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-15,66; 26,02</t>
+          <t>-9,5; 41,5</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 54,68</t>
+          <t>-3,6; 39,15</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-14,91; 25,76</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-3,46; 45,54</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-4,01; 56,02</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-20,31; 24,28</t>
         </is>
       </c>
     </row>
@@ -876,50 +988,70 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,44</t>
+          <t>9,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>6,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,76</t>
+          <t>6,47</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,85</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>5,15</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>27,97%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>19,81%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,79%</t>
+          <t>27,94%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>24,73%</t>
+          <t>27,98%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>20,29%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>20,65%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>17,05%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -934,50 +1066,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 21,86</t>
+          <t>-5,0; 20,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 16,49</t>
+          <t>-4,82; 17,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 16,67</t>
+          <t>-4,39; 16,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 17,92</t>
+          <t>-7,95; 16,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-8,04; 19,38</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-10,94; 83,92</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-24,34; 95,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-16,42; 62,99</t>
+          <t>-12,35; 75,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-18,4; 82,57</t>
+          <t>-14,54; 98,81</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-12,68; 63,15</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-24,07; 71,39</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-21,59; 84,16</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1001,47 +1153,67 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2,56</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>12,36%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>4,62%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>13,76%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>13,73%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>9,05%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>15,76%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>2,9%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>5,44%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,91 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,3; 8,11</t>
+          <t>0,33; 8,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 5,58</t>
+          <t>-2,8; 5,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 7,95</t>
+          <t>0,46; 8,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 6,84</t>
+          <t>-1,55; 6,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 5,52</t>
+          <t>0,32; 9,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,83; 25,53</t>
+          <t>-4,02; 5,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 20,3</t>
+          <t>-2,19; 7,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,5; 28,64</t>
+          <t>0,99; 26,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 25,58</t>
+          <t>-8,67; 20,79</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 12,96</t>
+          <t>1,09; 28,97</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-4,97; 23,91</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>0,92; 33,77</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-8,2; 13,27</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-4,42; 16,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P50_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P50_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -666,479 +675,307 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,05</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,34</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,92</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,21</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>4,51</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-0,83</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>3,26</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>6,05%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-4,36%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>10,27%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>11,53%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>15,5%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>-1,76%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>6,76%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.046593880969561</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-1.416827685569666</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.323310718851941</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>3.068052808925587</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>4.232337091958427</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.8335313960891544</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>3.387151233820157</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.06054636735239225</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.04547010876235346</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.1174101607261932</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.1099115279103024</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.1438277410628948</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>-0.01758682631473496</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>0.07039539995938543</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,96; 7,17</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-7,32; 4,36</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,29; 7,9</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-3,19; 8,48</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-2,14; 10,34</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-6,65; 4,2</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-3,4; 8,06</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-8,37; 23,14</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-21,52; 16,17</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-6,96; 30,88</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-10,07; 34,14</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-7,03; 40,07</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>-13,22; 9,43</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>-6,2; 17,89</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-2.963702251239209</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-7.677941638433261</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.665268643656518</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-3.107257126508078</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-2.526456312186566</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-6.646562595277594</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-3.13590986789823</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.08371102202999615</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.2221904135275654</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.05659841528528409</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.09634962205138801</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.07744608824250118</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>-0.132212168139907</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>-0.05805243436850951</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>7.172430578434656</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.315785966094044</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>8.321843110131621</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>8.682127568932598</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>9.979513749675425</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>4.199003022682919</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>8.239795733508855</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.2313877925157722</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.1609150824425612</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.3247038325189952</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.3436285261410541</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.386780882416687</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>0.09434929378947343</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>0.182022889583914</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>5,38</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,51</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,19</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,23</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>5,38</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>7,79</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-0,44</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>15,89%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>11,58%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>16,56%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>3,84%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>16,45%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>21,44%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>-1,01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,86; 11,04</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,14; 10,68</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,19; 11,11</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-5,4; 7,27</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-1,19; 13,64</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-1,68; 17,59</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-9,8; 9,29</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-2,45; 35,44</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-9,5; 41,5</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-3,6; 39,15</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-14,91; 25,76</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-3,46; 45,54</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>-4,01; 56,02</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>-20,31; 24,28</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>5.375367796569774</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.676711859466974</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>4.857245076844335</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.1882389315439</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>5.087001484557358</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>7.790883173727909</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.005403745547155614</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.158868866228725</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.0859289433204109</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.1526401617651031</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.03711600741790422</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.1549303290618962</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>0.2143568080374413</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>0.0001252277482887604</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>9,43</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>6,81</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,47</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5,87</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>5,15</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>27,94%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>27,98%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>20,29%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>20,65%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>17,05%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.8573241290438689</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.509872162058382</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.595409236096885</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-5.215836305918</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-1.696506058397306</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-1.683508588303399</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-9.263215151775986</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.02449923305359012</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.1279585986872343</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.04474330185951464</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.1446304904159723</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.04745176460969916</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>-0.04007858890555988</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>-0.1957375583837544</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-5,0; 20,75</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,82; 17,42</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,39; 16,94</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-7,95; 16,08</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-8,04; 19,38</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-12,35; 75,36</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-14,54; 98,81</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-12,68; 63,15</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-24,07; 71,39</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-21,59; 84,16</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>11.0382720556429</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>9.796400544007874</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>10.86605206271307</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>7.409730117082416</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>13.11021419764044</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>17.5901878142802</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>9.713771808167531</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.3544347898246967</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.3703847489043961</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.3848515086280402</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.263339981949621</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.4492989657431331</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>0.5602484819244272</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>0.2632795378201656</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1146,157 +983,281 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>4,18</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,53</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,12</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,68</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>4,84</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>1,3</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>2,56</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>12,36%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>5,15%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>13,73%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>9,05%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>15,76%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>2,9%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>5,44%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>9.433539302972916</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>6.598757017737015</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>5.748115320450864</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>6.693983527390401</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>5.938906993752285</v>
+      </c>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="6" t="n">
+        <v>0.2794076576142405</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.280627875793419</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.1770753316373575</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>0.2401321108507919</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>0.2010963354038234</v>
+      </c>
+      <c r="O10" s="6" t="inlineStr"/>
+      <c r="P10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,33; 8,34</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,8; 5,57</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,46; 8,01</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,55; 6,53</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0,32; 9,53</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-4,02; 5,63</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-2,19; 7,36</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>0,99; 26,17</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-8,67; 20,79</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>1,09; 28,97</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-4,97; 23,91</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>0,92; 33,77</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>-8,2; 13,27</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>-4,42; 16,63</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5.004084814489543</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.994955064984686</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-5.369627745663105</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-6.48101519230664</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-7.181799885097682</v>
+      </c>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.1235069566753158</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.171912259963463</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.1478933497219369</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>-0.2023015686693604</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>-0.1960763886924353</v>
+      </c>
+      <c r="O11" s="6" t="inlineStr"/>
+      <c r="P11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>20.75216802043619</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>18.11747894108836</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>16.43142719957615</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>16.97484079068786</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>20.23167218429158</v>
+      </c>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>0.7535622344122994</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.077919378750731</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.6056226887188657</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>0.768928229083872</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>0.9085720627096232</v>
+      </c>
+      <c r="O12" s="6" t="inlineStr"/>
+      <c r="P12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>4.177933443928023</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.156748309350064</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>4.099176699562223</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.693588152861481</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>4.685925780923567</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>1.299157901929693</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>2.752244362389683</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.123568183594069</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.03828508233574238</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.1357044225268154</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.09117243039967826</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.1520130565499037</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>0.02903634150668424</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>0.05866154362155161</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.3321958403010873</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.185389052133564</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.1588249637864253</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.571558366991641</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.1801909167067445</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-4.023756888911596</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-2.018587557524994</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.009889621236760083</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.09859899432761939</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.005408951898276488</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.04972657346971687</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.004147370376980716</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>-0.08196187816365956</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>-0.04048988585132791</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>8.340867666672196</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.349687563319605</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>7.955325582756376</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6.488698499235192</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>9.340712220825635</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>5.63293154941828</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>7.494161941997179</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.2616869301774715</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.1905653336249877</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.2835693317506595</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.2379966266261826</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.3288365405166432</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>0.1327477219748574</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>0.1698241259459865</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1305,12 +1266,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
